--- a/biology/Zoologie/Couvain/Couvain.xlsx
+++ b/biology/Zoologie/Couvain/Couvain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le couvain est l'ensemble des œufs, larves et nymphes, protégé, soigné et alimenté par les nourrices dans une colonie d'insectes hyménoptères sociaux tels que les Apidae (Abeille domestique, Bourdons), les Vespoidea (Guêpes et Frelons), les Fourmis ainsi que chez les Isoptères tels que les Termites. 
 	Différentes formes de couvain
@@ -517,11 +529,48 @@
           <t>Abeille domestique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chez l'Abeille domestique, le couvain est généralement situé au centre de la ruche et est entouré de rayons de miel et de pollen (pain d'abeille) pour l'alimenter. Les larves d'abeilles sont alimentées individuellement par les nourrices plus de 1 000 fois et reçoivent 7 000 visites de contrôle en six jours de ce traitement, leur poids augmentant plus de 1 000 fois pour atteindre environ 140 à 160 mg avant de se transformer en nymphe[1]. L'ours en est friand (bien plus que de miel) car il contient énormément de protéines.
-Maladies
-Le couvain des abeilles peut être affecté par différentes maladies :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'Abeille domestique, le couvain est généralement situé au centre de la ruche et est entouré de rayons de miel et de pollen (pain d'abeille) pour l'alimenter. Les larves d'abeilles sont alimentées individuellement par les nourrices plus de 1 000 fois et reçoivent 7 000 visites de contrôle en six jours de ce traitement, leur poids augmentant plus de 1 000 fois pour atteindre environ 140 à 160 mg avant de se transformer en nymphe. L'ours en est friand (bien plus que de miel) car il contient énormément de protéines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Couvain</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couvain</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Abeille domestique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le couvain des abeilles peut être affecté par différentes maladies :
 Varroa
 Mycoses
 ascosphérose ou couvain plâtré
